--- a/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
+++ b/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
@@ -538,6 +538,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -11318,7 +11319,7 @@
   <dimension ref="A1:AB846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
+++ b/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
@@ -11319,7 +11319,7 @@
   <dimension ref="A1:AB846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
+++ b/docs/docs_I_received/par_laetitia/recap GIST projet GIRONDE - Copie ELIE avec GI.xlsx
@@ -11319,7 +11319,7 @@
   <dimension ref="A1:AB846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
